--- a/DATASET_IN_FOGLI_NORMALIZZATO.xlsx
+++ b/DATASET_IN_FOGLI_NORMALIZZATO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\ESAMI DA DARE\FIA\PROGETTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1f2d5574cccec2a/Desktop/Progetti Università/GameDelogger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DD2860-29DB-4013-A2BA-0890901CA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{D2DD2860-29DB-4013-A2BA-0890901CA5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA08DE9C-FB10-4857-BDAA-8866F8C465B9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOGLIO1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="573">
   <si>
     <t>name</t>
   </si>
@@ -163,12 +163,6 @@
     <t>BioShock</t>
   </si>
   <si>
-    <t>The Elder Scrolls V: Skyrim - Special Edition</t>
-  </si>
-  <si>
-    <t>117 Hours</t>
-  </si>
-  <si>
     <t>Developer:
 					Bethesda Game Studios</t>
   </si>
@@ -402,10 +396,6 @@
     <t>Metro Exodus</t>
   </si>
   <si>
-    <t>Developer:
-					4A Games</t>
-  </si>
-  <si>
     <t>Ori and the Will of the Wisps</t>
   </si>
   <si>
@@ -461,9 +451,6 @@
   </si>
   <si>
     <t>Death's Door (2021)</t>
-  </si>
-  <si>
-    <t>Control: Ultimate Edition</t>
   </si>
   <si>
     <t>24½ Hours</t>
@@ -696,9 +683,6 @@
     <t>84½ Hours</t>
   </si>
   <si>
-    <t>Middle-Earth: Shadow of War</t>
-  </si>
-  <si>
     <t>Borderlands: The Pre-Sequel!</t>
   </si>
   <si>
@@ -834,9 +818,6 @@
     <t>ŌKAMI</t>
   </si>
   <si>
-    <t>Metro 2033</t>
-  </si>
-  <si>
     <t>Yakuza Kiwami 2</t>
   </si>
   <si>
@@ -915,12 +896,6 @@
     <t>Among Us</t>
   </si>
   <si>
-    <t>Borderlands: Game of the Year</t>
-  </si>
-  <si>
-    <t>38½ Hours</t>
-  </si>
-  <si>
     <t>Just Cause 3</t>
   </si>
   <si>
@@ -1482,9 +1457,6 @@
     <t>IO Interactive</t>
   </si>
   <si>
-    <t>Monolith Productions</t>
-  </si>
-  <si>
     <t>2K Australia, Gearbox Software</t>
   </si>
   <si>
@@ -1795,6 +1767,9 @@
   </si>
   <si>
     <t>Rockstar North, Rockstar Vienna</t>
+  </si>
+  <si>
+    <t>anno</t>
   </si>
 </sst>
 </file>
@@ -2126,22 +2101,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910C6E36-1F5B-4F50-BD3B-757E1815F027}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="51.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2154,8 +2129,11 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2163,13 +2141,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2177,13 +2158,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2191,13 +2175,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2205,13 +2192,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2219,13 +2209,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -2233,13 +2226,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2247,13 +2243,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2261,13 +2260,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2275,13 +2277,16 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2289,13 +2294,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,13 +2311,16 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2317,13 +2328,16 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2331,13 +2345,16 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2345,13 +2362,16 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2359,13 +2379,16 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -2373,13 +2396,16 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2387,13 +2413,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2401,13 +2430,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -2415,13 +2447,16 @@
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,10 +2464,13 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2007</v>
       </c>
     </row>
   </sheetData>
@@ -2442,22 +2480,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C8BA44-A6D5-40BF-8DDC-00D65BC911EC}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="39.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2470,285 +2508,348 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
@@ -2758,22 +2859,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9644B750-CB7B-4F81-89C5-FA9905DF71D0}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="32.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2786,22 +2887,28 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>365</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -2809,27 +2916,33 @@
         <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>337</v>
+      <c r="C4" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -2837,13 +2950,16 @@
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -2851,13 +2967,16 @@
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2865,13 +2984,16 @@
         <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -2879,13 +3001,16 @@
         <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -2893,13 +3018,16 @@
         <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -2907,83 +3035,101 @@
         <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>373</v>
+      <c r="C14" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>375</v>
+      <c r="C15" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -2991,13 +3137,16 @@
         <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -3005,41 +3154,50 @@
         <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -3047,24 +3205,13 @@
         <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -3074,22 +3221,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CB5A36-B8B2-49BB-9736-4D2FD6A48528}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="36.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,285 +3249,348 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>417</v>
+      <c r="E21" s="2">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
@@ -3390,22 +3600,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E2760B-344A-4880-9AE1-2F2525C5931E}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="24.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,285 +3628,331 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>443</v>
+      <c r="E20" s="2">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -3706,22 +3962,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F78073F-7C36-4C4B-A5FE-461F78A8B15B}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="61.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="37.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,285 +3990,331 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>191</v>
+      <c r="E20" s="2">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
@@ -4022,22 +4324,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1514E39-FCB7-4AFB-BF2B-E8B4922DCB4F}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="60.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="73.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="27.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4050,285 +4352,331 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="E16" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>340</v>
+        <v>463</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -4338,22 +4686,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C752E344-0C5E-4713-B3AC-753DEE8FD4EE}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="66.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="46.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4366,285 +4714,348 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -4654,22 +5065,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837FB92E-C870-4F4A-BDEB-8F1D230801E1}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="44.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4682,285 +5093,331 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -4970,22 +5427,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362AB29F-F5DB-4B31-89E9-E0F98B5255F6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="39" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4998,285 +5455,331 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E17" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E19" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>554</v>
+      <c r="E20" s="2">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
